--- a/municipal/ENG/Trading/Average annual number of employed persons/Average annual number of employed persons.xlsx
+++ b/municipal/ENG/Trading/Average annual number of employed persons/Average annual number of employed persons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsertsvadze\Desktop\ბაზრები - Copy\Average annual number of employed persons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Average annual number of employed persons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,10 +233,28 @@
     <t>Khashuri Municipality</t>
   </si>
   <si>
-    <t>... - Data is missing or confidential</t>
-  </si>
-  <si>
     <t>(Declared Data, Persons)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "…" - Data is missing or confidential</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -246,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +343,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
@@ -408,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,18 +510,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,7 +802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -994,7 +1018,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1069,7 +1093,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="11">
@@ -1101,7 +1125,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="11">
@@ -1197,7 +1221,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11">
@@ -1325,7 +1349,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="11">
@@ -1741,7 +1765,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="11">
@@ -2029,7 +2053,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="11">
@@ -2157,7 +2181,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="11">
@@ -2285,7 +2309,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="11">
@@ -2573,7 +2597,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="11">
@@ -2733,7 +2757,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="11">
@@ -2989,7 +3013,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="11">
@@ -3149,13 +3173,13 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
+      <c r="A70" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3166,5 +3190,6 @@
     <mergeCell ref="A70:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>